--- a/nodes_source_analyses/energy/industry/industry_chp_engine_gas_power_fuelmix.xlsx
+++ b/nodes_source_analyses/energy/industry/industry_chp_engine_gas_power_fuelmix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10808"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlottevonm/Code/etdataset/nodes_source_analyses/energy/industry/AAA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Code/etdataset/nodes_source_analyses/energy/industry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6919911B-C1E0-304D-8706-2C6839B1CC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8069BC-652A-CB4F-A1F6-37738AD5168E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="28300" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="135">
   <si>
     <t>Source</t>
   </si>
@@ -144,9 +144,6 @@
     <t xml:space="preserve">Decmmmissioning cost </t>
   </si>
   <si>
-    <t>Electricity output capacity</t>
-  </si>
-  <si>
     <t>euro/MWh</t>
   </si>
   <si>
@@ -180,12 +177,6 @@
     <t>takes_part_in_ets</t>
   </si>
   <si>
-    <t>electricity_output_capacity</t>
-  </si>
-  <si>
-    <t>heat_output_capacity</t>
-  </si>
-  <si>
     <t>initial_investment</t>
   </si>
   <si>
@@ -220,9 +211,6 @@
   </si>
   <si>
     <t>quintel/etsource@0277ad226491f5aae44c874b298cbcf694d2f6cb</t>
-  </si>
-  <si>
-    <t>Heat output capacity</t>
   </si>
   <si>
     <t>Investment cost with ccs</t>
@@ -601,6 +589,12 @@
   </si>
   <si>
     <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
+  <si>
+    <t>typical_input_capacity</t>
+  </si>
+  <si>
+    <t>input capacity</t>
   </si>
 </sst>
 </file>
@@ -1377,7 +1371,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1670,6 +1664,19 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="253">
@@ -2693,12 +2700,12 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="17" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="17"/>
+    <col min="1" max="1" width="3.5" style="25" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" style="17" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="23" customFormat="1">
@@ -2724,16 +2731,16 @@
         <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2758,7 +2765,7 @@
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="100" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C9" s="101"/>
     </row>
@@ -2770,31 +2777,31 @@
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="102" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C11" s="104" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="102"/>
       <c r="C12" s="14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="102"/>
       <c r="C13" s="105" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="102"/>
       <c r="C14" s="103" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2805,58 +2812,58 @@
     <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="102" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C16" s="106" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="102"/>
       <c r="C17" s="107" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="102"/>
       <c r="C18" s="108" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="102"/>
       <c r="C19" s="109" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="110"/>
       <c r="C20" s="111" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="110"/>
       <c r="C21" s="112" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="110"/>
       <c r="C22" s="113" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" s="110"/>
       <c r="C23" s="114" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2870,25 +2877,25 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K31"/>
+  <dimension ref="B1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="31" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="31" customWidth="1"/>
     <col min="3" max="3" width="46" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="31" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="31" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="31" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="31" customWidth="1"/>
     <col min="7" max="7" width="45" style="31" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="31" customWidth="1"/>
-    <col min="9" max="9" width="51.42578125" style="31" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="31"/>
+    <col min="8" max="8" width="5.1640625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="51.5" style="31" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -2899,7 +2906,7 @@
     </row>
     <row r="2" spans="2:11">
       <c r="B2" s="156" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C2" s="157"/>
       <c r="D2" s="157"/>
@@ -2940,7 +2947,7 @@
     <row r="7" spans="2:11" s="38" customFormat="1" ht="19">
       <c r="B7" s="115"/>
       <c r="C7" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="116" t="s">
         <v>14</v>
@@ -2972,7 +2979,7 @@
     <row r="9" spans="2:11" s="38" customFormat="1" ht="20" thickBot="1">
       <c r="B9" s="19"/>
       <c r="C9" s="14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D9" s="26"/>
       <c r="E9" s="14"/>
@@ -2985,7 +2992,7 @@
     <row r="10" spans="2:11" ht="17" thickBot="1">
       <c r="B10" s="34"/>
       <c r="C10" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>5</v>
@@ -2997,7 +3004,7 @@
       <c r="G10" s="30"/>
       <c r="H10" s="30"/>
       <c r="I10" s="28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J10" s="123"/>
       <c r="K10" s="29"/>
@@ -3005,7 +3012,7 @@
     <row r="11" spans="2:11" ht="17" thickBot="1">
       <c r="B11" s="34"/>
       <c r="C11" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>5</v>
@@ -3017,7 +3024,7 @@
       <c r="G11" s="30"/>
       <c r="H11" s="30"/>
       <c r="I11" s="28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J11" s="123"/>
       <c r="K11" s="29"/>
@@ -3025,49 +3032,41 @@
     <row r="12" spans="2:11" ht="17" thickBot="1">
       <c r="B12" s="34"/>
       <c r="C12" s="30" t="s">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E12" s="41">
         <f>'Research data'!G6</f>
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="F12" s="30"/>
-      <c r="G12" s="30" t="s">
-        <v>28</v>
+      <c r="G12" s="165" t="s">
+        <v>134</v>
       </c>
       <c r="H12" s="30"/>
       <c r="I12" s="28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J12" s="123"/>
     </row>
-    <row r="13" spans="2:11" ht="17" thickBot="1">
+    <row r="13" spans="2:11">
       <c r="B13" s="34"/>
-      <c r="C13" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="40">
-        <v>1.14286</v>
-      </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="28" t="s">
-        <v>53</v>
-      </c>
+      <c r="C13" s="87"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
       <c r="J13" s="123"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" ht="17" thickBot="1">
       <c r="B14" s="34"/>
-      <c r="C14" s="87"/>
+      <c r="C14" s="14" t="s">
+        <v>81</v>
+      </c>
       <c r="D14" s="118"/>
       <c r="E14" s="119"/>
       <c r="F14" s="29"/>
@@ -3078,142 +3077,150 @@
     </row>
     <row r="15" spans="2:11" ht="17" thickBot="1">
       <c r="B15" s="34"/>
-      <c r="C15" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="118"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
+      <c r="C15" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="41">
+        <f>'Research data'!G16</f>
+        <v>600000</v>
+      </c>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="30"/>
+      <c r="I15" s="141" t="s">
+        <v>109</v>
+      </c>
       <c r="J15" s="123"/>
     </row>
     <row r="16" spans="2:11" ht="17" thickBot="1">
       <c r="B16" s="34"/>
       <c r="C16" s="30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" s="41">
-        <f>'Research data'!G15</f>
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="30"/>
       <c r="G16" s="30" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="H16" s="30"/>
-      <c r="I16" s="141" t="s">
-        <v>113</v>
+      <c r="I16" s="28" t="s">
+        <v>50</v>
       </c>
       <c r="J16" s="123"/>
     </row>
     <row r="17" spans="2:10" ht="17" thickBot="1">
       <c r="B17" s="34"/>
       <c r="C17" s="30" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="41">
         <v>0</v>
       </c>
       <c r="F17" s="30"/>
       <c r="G17" s="30" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="H17" s="30"/>
       <c r="I17" s="28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J17" s="123"/>
     </row>
     <row r="18" spans="2:10" ht="17" thickBot="1">
       <c r="B18" s="34"/>
       <c r="C18" s="30" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" s="41">
         <v>0</v>
       </c>
       <c r="F18" s="30"/>
       <c r="G18" s="30" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H18" s="30"/>
       <c r="I18" s="28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J18" s="123"/>
     </row>
     <row r="19" spans="2:10" ht="17" thickBot="1">
       <c r="B19" s="34"/>
       <c r="C19" s="30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="41">
+        <v>49</v>
+      </c>
+      <c r="E19" s="117">
         <v>0</v>
       </c>
       <c r="F19" s="30"/>
       <c r="G19" s="30" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="H19" s="30"/>
-      <c r="I19" s="28" t="s">
-        <v>53</v>
+      <c r="I19" s="144" t="s">
+        <v>97</v>
       </c>
       <c r="J19" s="123"/>
     </row>
     <row r="20" spans="2:10" ht="17" thickBot="1">
       <c r="B20" s="34"/>
       <c r="C20" s="30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="117">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="E20" s="40">
+        <f>'Research data'!G22</f>
+        <v>8</v>
       </c>
       <c r="F20" s="30"/>
       <c r="G20" s="30" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H20" s="30"/>
       <c r="I20" s="144" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J20" s="123"/>
     </row>
     <row r="21" spans="2:10" ht="17" thickBot="1">
       <c r="B21" s="34"/>
       <c r="C21" s="30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="40">
-        <f>'Research data'!G21</f>
-        <v>8</v>
+        <v>48</v>
+      </c>
+      <c r="E21" s="120">
+        <v>0</v>
       </c>
       <c r="F21" s="30"/>
       <c r="G21" s="30" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H21" s="30"/>
-      <c r="I21" s="144" t="s">
-        <v>101</v>
+      <c r="I21" s="134" t="s">
+        <v>50</v>
       </c>
       <c r="J21" s="123"/>
     </row>
@@ -3223,180 +3230,159 @@
         <v>47</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="120">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="E22" s="41">
+        <v>0.04</v>
       </c>
       <c r="F22" s="30"/>
       <c r="G22" s="30" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="H22" s="30"/>
-      <c r="I22" s="134" t="s">
-        <v>53</v>
+      <c r="I22" s="155" t="s">
+        <v>132</v>
       </c>
       <c r="J22" s="123"/>
     </row>
     <row r="23" spans="2:10" ht="17" thickBot="1">
       <c r="B23" s="34"/>
       <c r="C23" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="41">
+        <v>0</v>
+      </c>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="41">
-        <v>0.04</v>
-      </c>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="30"/>
-      <c r="I23" s="155" t="s">
-        <v>136</v>
-      </c>
       <c r="J23" s="123"/>
     </row>
-    <row r="24" spans="2:10" ht="17" thickBot="1">
+    <row r="24" spans="2:10">
       <c r="B24" s="34"/>
-      <c r="C24" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="41">
-        <v>0</v>
-      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="121"/>
       <c r="F24" s="30"/>
       <c r="G24" s="30"/>
       <c r="H24" s="30"/>
-      <c r="I24" s="28" t="s">
-        <v>53</v>
-      </c>
+      <c r="I24" s="29"/>
       <c r="J24" s="123"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" ht="17" thickBot="1">
       <c r="B25" s="34"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="18"/>
+      <c r="C25" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="118"/>
       <c r="E25" s="121"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
       <c r="I25" s="29"/>
       <c r="J25" s="123"/>
     </row>
     <row r="26" spans="2:10" ht="17" thickBot="1">
       <c r="B26" s="34"/>
-      <c r="C26" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="118"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
+      <c r="C26" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="41">
+        <f>'Research data'!G11</f>
+        <v>0.1</v>
+      </c>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="30"/>
+      <c r="I26" s="137" t="s">
+        <v>107</v>
+      </c>
       <c r="J26" s="123"/>
     </row>
     <row r="27" spans="2:10" ht="17" thickBot="1">
       <c r="B27" s="34"/>
       <c r="C27" s="30" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="41">
-        <f>'Research data'!G10</f>
-        <v>0.1</v>
+        <v>2</v>
+      </c>
+      <c r="E27" s="117">
+        <f>'Research data'!G12</f>
+        <v>1</v>
       </c>
       <c r="F27" s="30"/>
       <c r="G27" s="30" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="H27" s="30"/>
-      <c r="I27" s="137" t="s">
-        <v>111</v>
+      <c r="I27" s="139" t="s">
+        <v>98</v>
       </c>
       <c r="J27" s="123"/>
     </row>
     <row r="28" spans="2:10" ht="17" thickBot="1">
       <c r="B28" s="34"/>
       <c r="C28" s="30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="117">
-        <f>'Research data'!G11</f>
-        <v>1</v>
+      <c r="E28" s="41">
+        <f>'Research data'!G13</f>
+        <v>20</v>
       </c>
       <c r="F28" s="30"/>
       <c r="G28" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H28" s="30"/>
-      <c r="I28" s="139" t="s">
-        <v>102</v>
+      <c r="I28" s="137" t="s">
+        <v>98</v>
       </c>
       <c r="J28" s="123"/>
     </row>
     <row r="29" spans="2:10" ht="17" thickBot="1">
       <c r="B29" s="34"/>
       <c r="C29" s="30" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E29" s="41">
-        <f>'Research data'!G12</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F29" s="30"/>
-      <c r="G29" s="30" t="s">
-        <v>25</v>
-      </c>
+      <c r="G29" s="30"/>
       <c r="H29" s="30"/>
-      <c r="I29" s="137" t="s">
-        <v>102</v>
+      <c r="I29" s="28" t="s">
+        <v>50</v>
       </c>
       <c r="J29" s="123"/>
     </row>
-    <row r="30" spans="2:10" ht="17" thickBot="1">
-      <c r="B30" s="34"/>
-      <c r="C30" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="41">
-        <v>0</v>
-      </c>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="J30" s="123"/>
-    </row>
-    <row r="31" spans="2:10" ht="20" customHeight="1" thickBot="1">
-      <c r="B31" s="35"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="37"/>
+    <row r="30" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B30" s="35"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3412,32 +3398,32 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:R24"/>
+  <dimension ref="B1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="67" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="67" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="67" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="67" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="67" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="67" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="67" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" style="68" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" style="68" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" style="68" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" style="68" customWidth="1"/>
-    <col min="13" max="13" width="2.7109375" style="68" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" style="68" customWidth="1"/>
+    <col min="1" max="2" width="3.5" style="67" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="67" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="67" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="67" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="67" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="67" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="67" customWidth="1"/>
+    <col min="9" max="9" width="8.5" style="68" customWidth="1"/>
+    <col min="10" max="10" width="2.83203125" style="68" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="68" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" style="68" customWidth="1"/>
+    <col min="13" max="13" width="2.6640625" style="68" customWidth="1"/>
+    <col min="14" max="14" width="9.83203125" style="68" customWidth="1"/>
     <col min="15" max="15" width="3" style="68" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" style="68" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" style="68" customWidth="1"/>
     <col min="17" max="17" width="3" style="68" customWidth="1"/>
-    <col min="18" max="18" width="69.42578125" style="67" customWidth="1"/>
-    <col min="19" max="16384" width="10.7109375" style="67"/>
+    <col min="18" max="18" width="69.5" style="67" customWidth="1"/>
+    <col min="19" max="16384" width="10.6640625" style="67"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="17" thickBot="1"/>
@@ -3463,7 +3449,7 @@
     <row r="3" spans="2:18" s="20" customFormat="1">
       <c r="B3" s="19"/>
       <c r="C3" s="130" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -3471,28 +3457,28 @@
         <v>14</v>
       </c>
       <c r="G3" s="130" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H3" s="130"/>
       <c r="I3" s="63" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J3" s="62"/>
       <c r="K3" s="63" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L3" s="62"/>
       <c r="M3" s="62"/>
       <c r="N3" s="62" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O3" s="62"/>
       <c r="P3" s="62" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="Q3" s="62"/>
       <c r="R3" s="130" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="2:18">
@@ -3517,7 +3503,7 @@
     <row r="5" spans="2:18" ht="17" thickBot="1">
       <c r="B5" s="72"/>
       <c r="C5" s="27" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
@@ -3537,37 +3523,25 @@
     </row>
     <row r="6" spans="2:18" ht="17" thickBot="1">
       <c r="B6" s="72"/>
-      <c r="C6" s="75" t="s">
-        <v>30</v>
+      <c r="C6" s="166" t="s">
+        <v>133</v>
       </c>
       <c r="D6" s="75"/>
       <c r="E6" s="75"/>
-      <c r="F6" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="79">
-        <f>ROUND(1,0)</f>
-        <v>1</v>
+      <c r="F6" s="167" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="169">
+        <f>ROUND(G7/G8,1)</f>
+        <v>2.4</v>
       </c>
       <c r="H6" s="78"/>
-      <c r="I6" s="79">
-        <f>Notes!D106/1000</f>
-        <v>1</v>
-      </c>
+      <c r="I6" s="79"/>
       <c r="J6" s="74"/>
-      <c r="K6" s="77">
-        <f>Notes!D90/1000</f>
-        <v>1.1890000000000001</v>
-      </c>
-      <c r="L6" s="77">
-        <f>Notes!D87/1000</f>
-        <v>0.88900000000000001</v>
-      </c>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
       <c r="M6" s="74"/>
-      <c r="N6" s="79">
-        <f>Notes!D13/1000</f>
-        <v>1</v>
-      </c>
+      <c r="N6" s="79"/>
       <c r="O6" s="74"/>
       <c r="P6" s="74"/>
       <c r="Q6" s="74"/>
@@ -3576,154 +3550,163 @@
     <row r="7" spans="2:18" ht="17" thickBot="1">
       <c r="B7" s="72"/>
       <c r="C7" s="75" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="D7" s="75"/>
       <c r="E7" s="75"/>
-      <c r="F7" s="132" t="s">
+      <c r="F7" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="79">
+        <f>ROUND(1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="78"/>
+      <c r="I7" s="79">
+        <f>Notes!D106/1000</f>
+        <v>1</v>
+      </c>
+      <c r="J7" s="74"/>
+      <c r="K7" s="77">
+        <f>Notes!D90/1000</f>
+        <v>1.1890000000000001</v>
+      </c>
+      <c r="L7" s="77">
+        <f>Notes!D87/1000</f>
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="M7" s="74"/>
+      <c r="N7" s="79">
+        <f>Notes!D13/1000</f>
+        <v>1</v>
+      </c>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="145"/>
+    </row>
+    <row r="8" spans="2:18" ht="17" thickBot="1">
+      <c r="B8" s="72"/>
+      <c r="C8" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="133">
-        <f>ROUND(N7,0)</f>
-        <v>42</v>
-      </c>
-      <c r="H7" s="74"/>
-      <c r="I7" s="133">
+      <c r="G8" s="168">
+        <f>ROUND(N8,0)/100</f>
+        <v>0.42</v>
+      </c>
+      <c r="H8" s="74"/>
+      <c r="I8" s="133">
         <f>Notes!D110</f>
         <v>40</v>
       </c>
-      <c r="J7" s="74"/>
-      <c r="K7" s="133">
+      <c r="J8" s="74"/>
+      <c r="K8" s="133">
         <f>Notes!D91</f>
         <v>43</v>
       </c>
-      <c r="L7" s="133">
+      <c r="L8" s="133">
         <f>Notes!D88</f>
         <v>42.8</v>
       </c>
-      <c r="M7" s="80"/>
-      <c r="N7" s="79">
+      <c r="M8" s="80"/>
+      <c r="N8" s="79">
         <v>42</v>
       </c>
-      <c r="O7" s="80"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="145"/>
-    </row>
-    <row r="8" spans="2:18">
-      <c r="B8" s="72"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="146"/>
-    </row>
-    <row r="9" spans="2:18" ht="17" thickBot="1">
+      <c r="O8" s="80"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="80"/>
+      <c r="R8" s="145"/>
+    </row>
+    <row r="9" spans="2:18">
       <c r="B9" s="72"/>
-      <c r="C9" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="147"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="146"/>
     </row>
     <row r="10" spans="2:18" ht="17" thickBot="1">
       <c r="B10" s="72"/>
-      <c r="C10" s="131" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="76" t="s">
+      <c r="C10" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="147"/>
+    </row>
+    <row r="11" spans="2:18" ht="17" thickBot="1">
+      <c r="B11" s="72"/>
+      <c r="C11" s="131" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="89">
+      <c r="G11" s="89">
         <f>ROUND(0.1,1)</f>
         <v>0.1</v>
       </c>
-      <c r="H10" s="83"/>
-      <c r="I10" s="89">
+      <c r="H11" s="83"/>
+      <c r="I11" s="89">
         <f>Notes!D121*Notes!D122/100000000</f>
         <v>8.4346000000000004E-2</v>
       </c>
-      <c r="J10" s="84"/>
-      <c r="K10" s="89">
+      <c r="J11" s="84"/>
+      <c r="K11" s="89">
         <f>Notes!D71*Notes!D72/100000000</f>
         <v>0.1206</v>
       </c>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="84"/>
-      <c r="R10" s="147"/>
-    </row>
-    <row r="11" spans="2:18" ht="17" thickBot="1">
-      <c r="B11" s="72"/>
-      <c r="C11" s="88" t="s">
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="84"/>
+      <c r="R11" s="147"/>
+    </row>
+    <row r="12" spans="2:18" ht="17" thickBot="1">
+      <c r="B12" s="72"/>
+      <c r="C12" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="76" t="s">
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="89">
+      <c r="G12" s="89">
         <f>ROUND(1,0)</f>
         <v>1</v>
-      </c>
-      <c r="H11" s="84"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="85"/>
-      <c r="O11" s="85"/>
-      <c r="P11" s="79">
-        <f>Notes!$D$52/12</f>
-        <v>1.1666666666666667</v>
-      </c>
-      <c r="Q11" s="85"/>
-      <c r="R11" s="147"/>
-    </row>
-    <row r="12" spans="2:18" ht="17" thickBot="1">
-      <c r="B12" s="72"/>
-      <c r="C12" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="91">
-        <f>ROUND(20,0)</f>
-        <v>20</v>
       </c>
       <c r="H12" s="84"/>
       <c r="I12" s="85"/>
@@ -3734,159 +3717,162 @@
       <c r="N12" s="85"/>
       <c r="O12" s="85"/>
       <c r="P12" s="79">
-        <f>Notes!$D$53</f>
+        <f>Notes!$D$52/12</f>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="147"/>
+    </row>
+    <row r="13" spans="2:18" ht="17" thickBot="1">
+      <c r="B13" s="72"/>
+      <c r="C13" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="91">
+        <f>ROUND(20,0)</f>
         <v>20</v>
       </c>
-      <c r="Q12" s="85"/>
-      <c r="R12" s="145"/>
-    </row>
-    <row r="13" spans="2:18">
-      <c r="B13" s="72"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="85"/>
       <c r="J13" s="85"/>
       <c r="K13" s="85"/>
       <c r="L13" s="85"/>
       <c r="M13" s="85"/>
       <c r="N13" s="85"/>
       <c r="O13" s="85"/>
-      <c r="P13" s="85"/>
+      <c r="P13" s="79">
+        <f>Notes!$D$53</f>
+        <v>20</v>
+      </c>
       <c r="Q13" s="85"/>
       <c r="R13" s="145"/>
     </row>
-    <row r="14" spans="2:18" ht="17" thickBot="1">
+    <row r="14" spans="2:18">
       <c r="B14" s="72"/>
-      <c r="C14" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="85"/>
       <c r="R14" s="145"/>
     </row>
     <row r="15" spans="2:18" ht="17" thickBot="1">
       <c r="B15" s="72"/>
-      <c r="C15" s="124" t="s">
-        <v>92</v>
+      <c r="C15" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
-      <c r="F15" s="124" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="89">
-        <f>ROUND(G16*G6*1000,2)</f>
-        <v>600000</v>
-      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="12"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="84"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
       <c r="R15" s="145"/>
     </row>
     <row r="16" spans="2:18" ht="17" thickBot="1">
       <c r="B16" s="72"/>
-      <c r="C16" s="92" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="125" t="s">
-        <v>89</v>
+      <c r="C16" s="124" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="124" t="s">
+        <v>33</v>
       </c>
       <c r="G16" s="89">
-        <f>N16</f>
-        <v>600</v>
-      </c>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
+        <f>ROUND(G17*G7*1000,2)</f>
+        <v>600000</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="140"/>
       <c r="J16" s="84"/>
       <c r="K16" s="84"/>
       <c r="L16" s="84"/>
       <c r="M16" s="84"/>
-      <c r="N16" s="96">
-        <f>Notes!D14</f>
-        <v>600</v>
-      </c>
+      <c r="N16" s="84"/>
       <c r="O16" s="84"/>
       <c r="P16" s="84"/>
       <c r="Q16" s="84"/>
-      <c r="R16" s="145" t="s">
-        <v>131</v>
-      </c>
+      <c r="R16" s="145"/>
     </row>
     <row r="17" spans="2:18" ht="17" thickBot="1">
       <c r="B17" s="72"/>
-      <c r="C17" s="135" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="99" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="142">
-        <f>G18+G20</f>
-        <v>48000</v>
-      </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
+      <c r="C17" s="92" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="125" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="89">
+        <f>N17</f>
+        <v>600</v>
+      </c>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
       <c r="J17" s="84"/>
       <c r="K17" s="84"/>
       <c r="L17" s="84"/>
       <c r="M17" s="84"/>
       <c r="N17" s="96">
-        <f>Notes!D33</f>
-        <v>48000</v>
+        <f>Notes!D14</f>
+        <v>600</v>
       </c>
       <c r="O17" s="84"/>
       <c r="P17" s="84"/>
       <c r="Q17" s="84"/>
-      <c r="R17" s="145"/>
+      <c r="R17" s="145" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="18" spans="2:18" ht="17" thickBot="1">
       <c r="B18" s="72"/>
       <c r="C18" s="135" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
       <c r="F18" s="99" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="93">
-        <f>ROUND(G19*G6*1000,2)</f>
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="G18" s="142">
+        <f>G19+G21</f>
+        <v>48000</v>
       </c>
       <c r="H18" s="12"/>
-      <c r="I18" s="84"/>
+      <c r="I18" s="12"/>
       <c r="J18" s="84"/>
       <c r="K18" s="84"/>
       <c r="L18" s="84"/>
       <c r="M18" s="84"/>
-      <c r="N18" s="84"/>
+      <c r="N18" s="96">
+        <f>Notes!D33</f>
+        <v>48000</v>
+      </c>
       <c r="O18" s="84"/>
       <c r="P18" s="84"/>
       <c r="Q18" s="84"/>
@@ -3894,16 +3880,16 @@
     </row>
     <row r="19" spans="2:18" ht="17" thickBot="1">
       <c r="B19" s="72"/>
-      <c r="C19" s="124" t="s">
-        <v>95</v>
+      <c r="C19" s="135" t="s">
+        <v>90</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
-      <c r="F19" s="126" t="s">
-        <v>90</v>
+      <c r="F19" s="99" t="s">
+        <v>33</v>
       </c>
       <c r="G19" s="93">
-        <f>N19</f>
+        <f>ROUND(G20*G7*1000,2)</f>
         <v>0</v>
       </c>
       <c r="H19" s="12"/>
@@ -3912,10 +3898,7 @@
       <c r="K19" s="84"/>
       <c r="L19" s="84"/>
       <c r="M19" s="84"/>
-      <c r="N19" s="96">
-        <f>Notes!D34</f>
-        <v>0</v>
-      </c>
+      <c r="N19" s="84"/>
       <c r="O19" s="84"/>
       <c r="P19" s="84"/>
       <c r="Q19" s="84"/>
@@ -3924,16 +3907,16 @@
     <row r="20" spans="2:18" ht="17" thickBot="1">
       <c r="B20" s="72"/>
       <c r="C20" s="124" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
-      <c r="F20" s="99" t="s">
-        <v>34</v>
+      <c r="F20" s="126" t="s">
+        <v>86</v>
       </c>
       <c r="G20" s="93">
-        <f>ROUND(G21*G23, 2)</f>
-        <v>48000</v>
+        <f>N20</f>
+        <v>0</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="84"/>
@@ -3941,7 +3924,10 @@
       <c r="K20" s="84"/>
       <c r="L20" s="84"/>
       <c r="M20" s="84"/>
-      <c r="N20" s="84"/>
+      <c r="N20" s="96">
+        <f>Notes!D34</f>
+        <v>0</v>
+      </c>
       <c r="O20" s="84"/>
       <c r="P20" s="84"/>
       <c r="Q20" s="84"/>
@@ -3949,19 +3935,19 @@
     </row>
     <row r="21" spans="2:18" ht="17" thickBot="1">
       <c r="B21" s="72"/>
-      <c r="C21" s="135" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="89">
-        <f>ROUND(G22*G24/G23,2)</f>
-        <v>8</v>
-      </c>
-      <c r="H21" s="84"/>
+      <c r="C21" s="124" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="93">
+        <f>ROUND(G22*G24, 2)</f>
+        <v>48000</v>
+      </c>
+      <c r="H21" s="12"/>
       <c r="I21" s="84"/>
       <c r="J21" s="84"/>
       <c r="K21" s="84"/>
@@ -3975,16 +3961,16 @@
     </row>
     <row r="22" spans="2:18" ht="17" thickBot="1">
       <c r="B22" s="72"/>
-      <c r="C22" s="124" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="125" t="s">
-        <v>88</v>
-      </c>
-      <c r="G22" s="96">
-        <f>N22</f>
+      <c r="C22" s="135" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="89">
+        <f>ROUND(G23*G25/G24,2)</f>
         <v>8</v>
       </c>
       <c r="H22" s="84"/>
@@ -3993,52 +3979,52 @@
       <c r="K22" s="84"/>
       <c r="L22" s="84"/>
       <c r="M22" s="84"/>
-      <c r="N22" s="96">
-        <f>Notes!D35</f>
-        <v>8</v>
-      </c>
+      <c r="N22" s="84"/>
       <c r="O22" s="84"/>
       <c r="P22" s="84"/>
       <c r="Q22" s="84"/>
-      <c r="R22" s="147"/>
+      <c r="R22" s="145"/>
     </row>
     <row r="23" spans="2:18" ht="17" thickBot="1">
       <c r="B23" s="72"/>
-      <c r="C23" s="129" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="97">
-        <v>6000</v>
-      </c>
-      <c r="H23" s="87"/>
-      <c r="I23" s="98"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="81"/>
-      <c r="O23" s="81"/>
-      <c r="P23" s="81"/>
-      <c r="Q23" s="81"/>
-      <c r="R23" s="145"/>
+      <c r="C23" s="124" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="125" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="96">
+        <f>N23</f>
+        <v>8</v>
+      </c>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="84"/>
+      <c r="N23" s="96">
+        <f>Notes!D35</f>
+        <v>8</v>
+      </c>
+      <c r="O23" s="84"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="84"/>
+      <c r="R23" s="147"/>
     </row>
     <row r="24" spans="2:18" ht="17" thickBot="1">
       <c r="B24" s="72"/>
-      <c r="C24" s="136" t="s">
-        <v>104</v>
+      <c r="C24" s="129" t="s">
+        <v>93</v>
       </c>
       <c r="D24" s="66"/>
       <c r="E24" s="66"/>
-      <c r="F24" s="129" t="s">
-        <v>98</v>
+      <c r="F24" s="66" t="s">
+        <v>55</v>
       </c>
       <c r="G24" s="97">
-        <f>G23*G6</f>
         <v>6000</v>
       </c>
       <c r="H24" s="87"/>
@@ -4052,6 +4038,32 @@
       <c r="P24" s="81"/>
       <c r="Q24" s="81"/>
       <c r="R24" s="145"/>
+    </row>
+    <row r="25" spans="2:18" ht="17" thickBot="1">
+      <c r="B25" s="72"/>
+      <c r="C25" s="136" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="129" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" s="97">
+        <f>G24*G7</f>
+        <v>6000</v>
+      </c>
+      <c r="H25" s="87"/>
+      <c r="I25" s="98"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="81"/>
+      <c r="M25" s="81"/>
+      <c r="N25" s="81"/>
+      <c r="O25" s="81"/>
+      <c r="P25" s="81"/>
+      <c r="Q25" s="81"/>
+      <c r="R25" s="145"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4070,18 +4082,18 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="42" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="42" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="42" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="42" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="42" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="42" customWidth="1"/>
-    <col min="7" max="9" width="12.140625" style="42" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="42" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="42" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" style="42" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="42" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="42" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="42" customWidth="1"/>
+    <col min="7" max="9" width="12.1640625" style="42" customWidth="1"/>
     <col min="10" max="10" width="32" style="43" customWidth="1"/>
-    <col min="11" max="11" width="75.42578125" style="42" customWidth="1"/>
-    <col min="12" max="16384" width="33.140625" style="42"/>
+    <col min="11" max="11" width="75.5" style="42" customWidth="1"/>
+    <col min="12" max="16384" width="33.1640625" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
@@ -4126,7 +4138,7 @@
     <row r="5" spans="2:11">
       <c r="B5" s="52"/>
       <c r="C5" s="53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="53"/>
       <c r="E5" s="53" t="s">
@@ -4136,16 +4148,16 @@
         <v>19</v>
       </c>
       <c r="G5" s="53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" s="53" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I5" s="53" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K5" s="53" t="s">
         <v>16</v>
@@ -4168,23 +4180,23 @@
       <c r="C7" s="61"/>
       <c r="D7" s="55"/>
       <c r="E7" s="50" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F7" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="51" t="s">
-        <v>66</v>
-      </c>
       <c r="H7" s="51" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I7" s="51"/>
       <c r="J7" s="51" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K7" s="64" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -4204,7 +4216,7 @@
     <row r="9" spans="2:11">
       <c r="B9" s="47"/>
       <c r="C9" s="55" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D9" s="56"/>
       <c r="E9" s="50"/>
@@ -4232,27 +4244,27 @@
       <c r="C11" s="55"/>
       <c r="D11" s="60"/>
       <c r="E11" s="55" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F11" s="57" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="58" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H11" s="58" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I11" s="58"/>
       <c r="J11" s="58" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K11" s="55"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="47"/>
       <c r="C12" s="60" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D12" s="60"/>
       <c r="E12" s="55"/>
@@ -4266,7 +4278,7 @@
     <row r="13" spans="2:11">
       <c r="B13" s="47"/>
       <c r="C13" s="55" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D13" s="60"/>
       <c r="E13" s="55"/>
@@ -4280,7 +4292,7 @@
     <row r="14" spans="2:11">
       <c r="B14" s="47"/>
       <c r="C14" s="55" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D14" s="60"/>
       <c r="E14" s="55"/>
@@ -4294,7 +4306,7 @@
     <row r="15" spans="2:11">
       <c r="B15" s="47"/>
       <c r="C15" s="60" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D15" s="60"/>
       <c r="E15" s="55"/>
@@ -4308,7 +4320,7 @@
     <row r="16" spans="2:11">
       <c r="B16" s="47"/>
       <c r="C16" s="60" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D16" s="60"/>
       <c r="E16" s="55"/>
@@ -4336,25 +4348,25 @@
       <c r="C18" s="60"/>
       <c r="D18" s="60"/>
       <c r="E18" s="55" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F18" s="57" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G18" s="58"/>
       <c r="H18" s="58"/>
       <c r="I18" s="58" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J18" s="58"/>
       <c r="K18" s="59" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="47"/>
       <c r="C19" s="60" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D19" s="60"/>
       <c r="F19" s="57"/>
@@ -4367,7 +4379,7 @@
     <row r="20" spans="2:11">
       <c r="B20" s="47"/>
       <c r="C20" s="60" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D20" s="60"/>
       <c r="F20" s="57"/>
@@ -4394,25 +4406,25 @@
       <c r="C22" s="60"/>
       <c r="D22" s="56"/>
       <c r="E22" s="55" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F22" s="57" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G22" s="58"/>
       <c r="H22" s="58"/>
       <c r="I22" s="58" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J22" s="58"/>
       <c r="K22" s="138" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="47"/>
       <c r="C23" s="60" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D23" s="55"/>
       <c r="E23" s="55"/>
@@ -4426,7 +4438,7 @@
     <row r="24" spans="2:11">
       <c r="B24" s="47"/>
       <c r="C24" s="60" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D24" s="55"/>
       <c r="E24" s="55"/>
@@ -4457,12 +4469,12 @@
       <selection activeCell="B2" sqref="B2:O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="143" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="143" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="143" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="143"/>
+    <col min="1" max="1" width="5.5" style="143" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="143" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="143" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="143"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="17" thickBot="1"/>
@@ -4488,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
@@ -4521,7 +4533,7 @@
     <row r="5" spans="2:15">
       <c r="B5" s="151"/>
       <c r="C5" s="152" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D5" s="152"/>
       <c r="E5" s="152"/>
@@ -4539,7 +4551,7 @@
     <row r="6" spans="2:15">
       <c r="B6" s="151"/>
       <c r="C6" s="152" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D6" s="152"/>
       <c r="E6" s="152"/>
@@ -4657,7 +4669,7 @@
         <v>1000</v>
       </c>
       <c r="E13" s="152" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F13" s="152"/>
       <c r="G13" s="152"/>
@@ -4677,7 +4689,7 @@
         <v>600</v>
       </c>
       <c r="E14" s="152" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F14" s="152"/>
       <c r="G14" s="152"/>
@@ -4793,7 +4805,7 @@
     <row r="21" spans="2:15">
       <c r="B21" s="151"/>
       <c r="C21" s="152" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D21" s="152"/>
       <c r="E21" s="152"/>
@@ -4987,13 +4999,13 @@
     <row r="33" spans="2:15">
       <c r="B33" s="151"/>
       <c r="C33" s="152" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D33" s="152">
         <v>48000</v>
       </c>
       <c r="E33" s="152" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F33" s="152"/>
       <c r="G33" s="152"/>
@@ -5009,13 +5021,13 @@
     <row r="34" spans="2:15">
       <c r="B34" s="151"/>
       <c r="C34" s="152" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D34" s="152">
         <v>0</v>
       </c>
       <c r="E34" s="152" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F34" s="152"/>
       <c r="G34" s="152"/>
@@ -5031,13 +5043,13 @@
     <row r="35" spans="2:15">
       <c r="B35" s="151"/>
       <c r="C35" s="152" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D35" s="152">
         <v>8</v>
       </c>
       <c r="E35" s="152" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F35" s="152"/>
       <c r="G35" s="152"/>
@@ -5245,7 +5257,7 @@
     <row r="48" spans="2:15">
       <c r="B48" s="151"/>
       <c r="C48" s="152" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D48" s="152"/>
       <c r="E48" s="152"/>
@@ -5263,7 +5275,7 @@
     <row r="49" spans="2:15">
       <c r="B49" s="151"/>
       <c r="C49" s="152" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D49" s="152"/>
       <c r="E49" s="152"/>
@@ -5317,7 +5329,7 @@
         <v>14</v>
       </c>
       <c r="E52" s="152" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F52" s="152"/>
       <c r="G52" s="152"/>
@@ -5337,7 +5349,7 @@
         <v>20</v>
       </c>
       <c r="E53" s="152" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F53" s="152"/>
       <c r="G53" s="152"/>
@@ -5577,7 +5589,7 @@
     <row r="68" spans="2:15">
       <c r="B68" s="151"/>
       <c r="C68" s="152" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D68" s="152"/>
       <c r="E68" s="152"/>
@@ -5631,7 +5643,7 @@
         <v>6700</v>
       </c>
       <c r="E71" s="152" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F71" s="152"/>
       <c r="G71" s="152"/>
@@ -5651,7 +5663,7 @@
         <v>1800</v>
       </c>
       <c r="E72" s="152" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F72" s="152"/>
       <c r="G72" s="152"/>
@@ -5895,7 +5907,7 @@
         <v>889</v>
       </c>
       <c r="E87" s="152" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F87" s="152"/>
       <c r="G87" s="152"/>
@@ -5951,7 +5963,7 @@
         <v>1189</v>
       </c>
       <c r="E90" s="152" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F90" s="152"/>
       <c r="G90" s="152"/>
@@ -6099,7 +6111,7 @@
     <row r="99" spans="2:15">
       <c r="B99" s="151"/>
       <c r="C99" s="152" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D99" s="152"/>
       <c r="E99" s="152"/>
@@ -6217,7 +6229,7 @@
         <v>1000</v>
       </c>
       <c r="E106" s="152" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F106" s="152"/>
       <c r="G106" s="152"/>
@@ -6465,7 +6477,7 @@
         <v>4660</v>
       </c>
       <c r="E121" s="152" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F121" s="152"/>
       <c r="G121" s="152"/>
@@ -6485,7 +6497,7 @@
         <v>1810</v>
       </c>
       <c r="E122" s="152" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F122" s="152"/>
       <c r="G122" s="152"/>
